--- a/Applied example/Analysis dataset codebook.xlsx
+++ b/Applied example/Analysis dataset codebook.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmathur/Dropbox/Personal computer/Independent studies/Tyler's outcome-wide paper/Linked to OSF (OWP)/Applied example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030D6BC-AE56-B64C-B299-5C9933473594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="9520" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="127">
   <si>
     <t>A1SEPA_z</t>
   </si>
@@ -360,12 +372,54 @@
   </si>
   <si>
     <t>Lived with an alcoholic in childhood (before age 16)</t>
+  </si>
+  <si>
+    <t>B1SBMIc</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>binge_c</t>
+  </si>
+  <si>
+    <t>B1SA62G</t>
+  </si>
+  <si>
+    <t>B1SA62A</t>
+  </si>
+  <si>
+    <t>B1PDEPDX</t>
+  </si>
+  <si>
+    <t>B1PANXTD</t>
+  </si>
+  <si>
+    <t>Overweight or obese</t>
+  </si>
+  <si>
+    <t>Current or former smoking</t>
+  </si>
+  <si>
+    <t>Heavy drinking</t>
+  </si>
+  <si>
+    <t>Marijuana use</t>
+  </si>
+  <si>
+    <t>Any other drug use</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -394,6 +448,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,18 +456,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,6 +478,7 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -479,6 +538,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -803,21 +870,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="5" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>36</v>
@@ -842,7 +909,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -865,7 +932,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -888,7 +955,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -911,7 +978,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -934,7 +1001,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -957,7 +1024,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -980,7 +1047,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1003,7 +1070,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1026,7 +1093,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -1049,7 +1116,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -1072,7 +1139,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="42">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1095,7 +1162,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1118,7 +1185,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1141,7 +1208,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1164,7 +1231,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -1187,7 +1254,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -1210,7 +1277,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1233,7 +1300,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
         <v>17</v>
@@ -1256,7 +1323,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -1269,7 +1336,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
@@ -1292,7 +1359,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -1315,7 +1382,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
         <v>20</v>
@@ -1338,7 +1405,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>21</v>
@@ -1361,7 +1428,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
         <v>22</v>
@@ -1384,7 +1451,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -1405,7 +1472,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -1428,7 +1495,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -1451,7 +1518,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>26</v>
@@ -1474,7 +1541,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
         <v>27</v>
@@ -1497,7 +1564,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
         <v>28</v>
@@ -1518,7 +1585,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -1539,7 +1606,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
         <v>30</v>
@@ -1560,7 +1627,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
         <v>31</v>
@@ -1581,7 +1648,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
         <v>32</v>
@@ -1602,7 +1669,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
         <v>33</v>
@@ -1623,7 +1690,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
         <v>34</v>
@@ -1644,7 +1711,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -1665,7 +1732,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1678,12 +1745,18 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1691,12 +1764,18 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1704,18 +1783,68 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1729,26 +1858,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
